--- a/Templates/RSL-IL-ExcelTemplate.xlsx
+++ b/Templates/RSL-IL-ExcelTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="473">
   <si>
     <t>Id</t>
   </si>
@@ -1536,21 +1536,6 @@
     <t>GNAME</t>
   </si>
   <si>
-    <t>GTYPE</t>
-  </si>
-  <si>
-    <t>GACRONYM</t>
-  </si>
-  <si>
-    <t>GPOS</t>
-  </si>
-  <si>
-    <t>GSYNONYM</t>
-  </si>
-  <si>
-    <t>GHYPERNYM</t>
-  </si>
-  <si>
     <t>GDESCRIPTION</t>
   </si>
   <si>
@@ -1729,6 +1714,30 @@
   </si>
   <si>
     <t>ATYPE</t>
+  </si>
+  <si>
+    <t>GTID</t>
+  </si>
+  <si>
+    <t>GTNAME</t>
+  </si>
+  <si>
+    <t>GTDESCRIPTION</t>
+  </si>
+  <si>
+    <t>GTTYPE</t>
+  </si>
+  <si>
+    <t>GTACRONYM</t>
+  </si>
+  <si>
+    <t>GTPOS</t>
+  </si>
+  <si>
+    <t>GTSYNONYM</t>
+  </si>
+  <si>
+    <t>GTHYPERNYM</t>
   </si>
 </sst>
 </file>
@@ -2503,6 +2512,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2512,21 +2530,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2557,6 +2569,42 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2569,6 +2617,18 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2587,52 +2647,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2641,42 +2659,42 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2694,15 +2712,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3027,7 +3036,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="23.25">
       <c r="A1" s="44" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="43"/>
@@ -3201,16 +3210,16 @@
     </row>
     <row r="8" spans="1:8" ht="39" customHeight="1"/>
     <row r="9" spans="1:8">
-      <c r="A9" s="185" t="s">
-        <v>423</v>
-      </c>
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="187"/>
+      <c r="A9" s="186" t="s">
+        <v>418</v>
+      </c>
+      <c r="B9" s="187"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="188"/>
     </row>
     <row r="10" spans="1:8" ht="31.5" customHeight="1">
       <c r="A10" s="130" t="s">
@@ -3240,28 +3249,28 @@
     </row>
     <row r="11" spans="1:8" ht="33.75" customHeight="1">
       <c r="A11" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="G11" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>432</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -3352,19 +3361,19 @@
     </row>
     <row r="8" spans="1:11" ht="30.75" customHeight="1"/>
     <row r="9" spans="1:11">
-      <c r="A9" s="185" t="s">
-        <v>423</v>
-      </c>
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="187"/>
+      <c r="A9" s="186" t="s">
+        <v>418</v>
+      </c>
+      <c r="B9" s="187"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="187"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="187"/>
+      <c r="K9" s="188"/>
     </row>
     <row r="10" spans="1:11" ht="32.25" customHeight="1">
       <c r="A10" s="130" t="s">
@@ -3403,37 +3412,37 @@
     </row>
     <row r="11" spans="1:11" ht="30">
       <c r="A11" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="J11" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="K11" s="15" t="s">
         <v>440</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -3512,16 +3521,16 @@
     </row>
     <row r="8" spans="1:8" ht="30.75" customHeight="1"/>
     <row r="9" spans="1:8">
-      <c r="A9" s="185" t="s">
-        <v>423</v>
-      </c>
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="187"/>
+      <c r="A9" s="186" t="s">
+        <v>418</v>
+      </c>
+      <c r="B9" s="187"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="187"/>
+      <c r="H9" s="188"/>
     </row>
     <row r="10" spans="1:8" ht="30.75" customHeight="1">
       <c r="A10" s="130" t="s">
@@ -3551,28 +3560,28 @@
     </row>
     <row r="11" spans="1:8" ht="30">
       <c r="A11" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="E11" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="G11" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>451</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -3652,40 +3661,40 @@
       <c r="B8" s="39"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="185" t="s">
-        <v>423</v>
-      </c>
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="187"/>
+      <c r="A9" s="186" t="s">
+        <v>418</v>
+      </c>
+      <c r="B9" s="187"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="187"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="188"/>
     </row>
     <row r="10" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="183" t="s">
         <v>287</v>
       </c>
-      <c r="B10" s="183"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="184"/>
-      <c r="E10" s="178" t="s">
+      <c r="B10" s="184"/>
+      <c r="C10" s="184"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="179" t="s">
         <v>278</v>
       </c>
-      <c r="F10" s="178" t="s">
+      <c r="F10" s="179" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75">
-      <c r="A11" s="181" t="s">
+      <c r="A11" s="182" t="s">
         <v>223</v>
       </c>
-      <c r="B11" s="181"/>
-      <c r="C11" s="181" t="s">
+      <c r="B11" s="182"/>
+      <c r="C11" s="182" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="181"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
     </row>
     <row r="12" spans="1:6" ht="15.75">
       <c r="A12" s="75" t="s">
@@ -3700,27 +3709,27 @@
       <c r="D12" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="181"/>
     </row>
     <row r="13" spans="1:6" s="46" customFormat="1" ht="38.25" customHeight="1">
       <c r="A13" s="106" t="s">
+        <v>452</v>
+      </c>
+      <c r="B13" s="106" t="s">
+        <v>453</v>
+      </c>
+      <c r="C13" s="106" t="s">
+        <v>454</v>
+      </c>
+      <c r="D13" s="106" t="s">
+        <v>455</v>
+      </c>
+      <c r="E13" s="106" t="s">
         <v>457</v>
       </c>
-      <c r="B13" s="106" t="s">
-        <v>458</v>
-      </c>
-      <c r="C13" s="106" t="s">
-        <v>459</v>
-      </c>
-      <c r="D13" s="106" t="s">
-        <v>460</v>
-      </c>
-      <c r="E13" s="106" t="s">
-        <v>462</v>
-      </c>
       <c r="F13" s="106" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -3810,27 +3819,27 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A6" s="170" t="s">
+      <c r="A6" s="173" t="s">
         <v>267</v>
       </c>
-      <c r="B6" s="171"/>
+      <c r="B6" s="174"/>
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A7" s="210" t="s">
+      <c r="A7" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="211"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A8" s="212" t="s">
+      <c r="A8" s="207" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="213"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
+      <c r="B8" s="208"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
       <c r="E8" s="61"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1">
@@ -3840,20 +3849,20 @@
       <c r="E9" s="72"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
-      <c r="A10" s="235" t="s">
+      <c r="A10" s="215" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="236"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
-      <c r="G10" s="236"/>
-      <c r="H10" s="236"/>
-      <c r="I10" s="236"/>
-      <c r="J10" s="236"/>
-      <c r="K10" s="236"/>
-      <c r="L10" s="236"/>
+      <c r="B10" s="216"/>
+      <c r="C10" s="216"/>
+      <c r="D10" s="216"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="216"/>
+      <c r="G10" s="216"/>
+      <c r="H10" s="216"/>
+      <c r="I10" s="216"/>
+      <c r="J10" s="216"/>
+      <c r="K10" s="216"/>
+      <c r="L10" s="216"/>
     </row>
     <row r="11" spans="1:12" ht="25.5" customHeight="1">
       <c r="A11" s="77" t="s">
@@ -3871,26 +3880,26 @@
       <c r="E11" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="205"/>
-      <c r="G11" s="205"/>
-      <c r="H11" s="205"/>
-      <c r="I11" s="205"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="205"/>
-      <c r="L11" s="205"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196"/>
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="196"/>
+      <c r="K11" s="196"/>
+      <c r="L11" s="196"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D12" s="189" t="s">
+      <c r="D12" s="202" t="s">
         <v>171</v>
       </c>
-      <c r="E12" s="190"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="190"/>
-      <c r="J12" s="190"/>
-      <c r="K12" s="190"/>
-      <c r="L12" s="191"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="203"/>
+      <c r="G12" s="203"/>
+      <c r="H12" s="203"/>
+      <c r="I12" s="203"/>
+      <c r="J12" s="203"/>
+      <c r="K12" s="203"/>
+      <c r="L12" s="204"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1">
       <c r="D13" s="9" t="s">
@@ -3922,17 +3931,17 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D14" s="189" t="s">
+      <c r="D14" s="202" t="s">
         <v>173</v>
       </c>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="190"/>
-      <c r="K14" s="190"/>
-      <c r="L14" s="191"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="203"/>
+      <c r="K14" s="203"/>
+      <c r="L14" s="204"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1">
       <c r="D15" s="9" t="s">
@@ -3944,40 +3953,40 @@
       <c r="F15" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G15" s="195"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="196"/>
-      <c r="K15" s="196"/>
-      <c r="L15" s="197"/>
+      <c r="G15" s="212"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="213"/>
+      <c r="L15" s="214"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D16" s="189" t="s">
+      <c r="D16" s="202" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="190"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="190"/>
-      <c r="L16" s="191"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="203"/>
+      <c r="H16" s="203"/>
+      <c r="I16" s="203"/>
+      <c r="J16" s="203"/>
+      <c r="K16" s="203"/>
+      <c r="L16" s="204"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1">
       <c r="D17" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E17" s="207" t="s">
+      <c r="E17" s="198" t="s">
         <v>178</v>
       </c>
-      <c r="F17" s="208"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="208"/>
-      <c r="L17" s="209"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="199"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="199"/>
+      <c r="J17" s="199"/>
+      <c r="K17" s="199"/>
+      <c r="L17" s="200"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1">
       <c r="A18" s="86" t="s">
@@ -3995,18 +4004,18 @@
       <c r="E18" s="89" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="192"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="193"/>
-      <c r="L18" s="194"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="210"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="210"/>
+      <c r="K18" s="210"/>
+      <c r="L18" s="211"/>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A19" s="200"/>
-      <c r="B19" s="200"/>
-      <c r="C19" s="188" t="s">
+      <c r="A19" s="191"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="201" t="s">
         <v>172</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -4039,9 +4048,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A20" s="206"/>
-      <c r="B20" s="206"/>
-      <c r="C20" s="188"/>
+      <c r="A20" s="197"/>
+      <c r="B20" s="197"/>
+      <c r="C20" s="201"/>
       <c r="D20" s="2" t="s">
         <v>112</v>
       </c>
@@ -4067,9 +4076,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A21" s="206"/>
-      <c r="B21" s="206"/>
-      <c r="C21" s="188"/>
+      <c r="A21" s="197"/>
+      <c r="B21" s="197"/>
+      <c r="C21" s="201"/>
       <c r="D21" s="2" t="s">
         <v>154</v>
       </c>
@@ -4093,9 +4102,9 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A22" s="206"/>
-      <c r="B22" s="206"/>
-      <c r="C22" s="188"/>
+      <c r="A22" s="197"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="201"/>
       <c r="D22" s="2" t="s">
         <v>183</v>
       </c>
@@ -4121,9 +4130,9 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A23" s="206"/>
-      <c r="B23" s="206"/>
-      <c r="C23" s="188" t="s">
+      <c r="A23" s="197"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="201" t="s">
         <v>173</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -4135,20 +4144,20 @@
       <c r="F23" s="24">
         <v>1</v>
       </c>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="188"/>
-      <c r="K23" s="188"/>
-      <c r="L23" s="188"/>
+      <c r="G23" s="201"/>
+      <c r="H23" s="201"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="201"/>
+      <c r="L23" s="201"/>
       <c r="M23" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A24" s="206"/>
-      <c r="B24" s="206"/>
-      <c r="C24" s="188"/>
+      <c r="A24" s="197"/>
+      <c r="B24" s="197"/>
+      <c r="C24" s="201"/>
       <c r="D24" s="2" t="s">
         <v>181</v>
       </c>
@@ -4158,17 +4167,17 @@
       <c r="F24" s="24">
         <v>1</v>
       </c>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="188"/>
-      <c r="K24" s="188"/>
-      <c r="L24" s="188"/>
+      <c r="G24" s="201"/>
+      <c r="H24" s="201"/>
+      <c r="I24" s="201"/>
+      <c r="J24" s="201"/>
+      <c r="K24" s="201"/>
+      <c r="L24" s="201"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A25" s="206"/>
-      <c r="B25" s="206"/>
-      <c r="C25" s="188"/>
+      <c r="A25" s="197"/>
+      <c r="B25" s="197"/>
+      <c r="C25" s="201"/>
       <c r="D25" s="2" t="s">
         <v>182</v>
       </c>
@@ -4178,71 +4187,80 @@
       <c r="F25" s="24">
         <v>1</v>
       </c>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="188"/>
-      <c r="K25" s="188"/>
-      <c r="L25" s="188"/>
+      <c r="G25" s="201"/>
+      <c r="H25" s="201"/>
+      <c r="I25" s="201"/>
+      <c r="J25" s="201"/>
+      <c r="K25" s="201"/>
+      <c r="L25" s="201"/>
     </row>
     <row r="26" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A26" s="206"/>
-      <c r="B26" s="206"/>
-      <c r="C26" s="200" t="s">
+      <c r="A26" s="197"/>
+      <c r="B26" s="197"/>
+      <c r="C26" s="191" t="s">
         <v>176</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E26" s="202" t="s">
+      <c r="E26" s="193" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="203"/>
-      <c r="J26" s="203"/>
-      <c r="K26" s="203"/>
-      <c r="L26" s="204"/>
+      <c r="F26" s="194"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="194"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="194"/>
+      <c r="L26" s="195"/>
       <c r="M26" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A27" s="201"/>
-      <c r="B27" s="201"/>
-      <c r="C27" s="201"/>
+      <c r="A27" s="192"/>
+      <c r="B27" s="192"/>
+      <c r="C27" s="192"/>
       <c r="D27" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E27" s="202" t="s">
+      <c r="E27" s="193" t="s">
         <v>180</v>
       </c>
-      <c r="F27" s="203"/>
-      <c r="G27" s="203"/>
-      <c r="H27" s="203"/>
-      <c r="I27" s="203"/>
-      <c r="J27" s="203"/>
-      <c r="K27" s="203"/>
-      <c r="L27" s="204"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="194"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="194"/>
+      <c r="L27" s="195"/>
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A28" s="198"/>
-      <c r="B28" s="199"/>
-      <c r="C28" s="199"/>
-      <c r="D28" s="199"/>
-      <c r="E28" s="199"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="199"/>
-      <c r="K28" s="199"/>
-      <c r="L28" s="199"/>
+      <c r="A28" s="189"/>
+      <c r="B28" s="190"/>
+      <c r="C28" s="190"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="190"/>
+      <c r="H28" s="190"/>
+      <c r="I28" s="190"/>
+      <c r="J28" s="190"/>
+      <c r="K28" s="190"/>
+      <c r="L28" s="190"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="25">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="D16:L16"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="A28:L28"/>
@@ -4259,15 +4277,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="D12:L12"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="G24:L24"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:G22">
@@ -4349,23 +4358,23 @@
       <c r="A6" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="214"/>
+      <c r="E6" s="217"/>
     </row>
     <row r="7" spans="1:9" s="83" customFormat="1" ht="14.25" customHeight="1">
       <c r="A7" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="214"/>
+      <c r="E7" s="217"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="215" t="s">
-        <v>423</v>
-      </c>
-      <c r="B9" s="215"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="215"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="215"/>
+      <c r="A9" s="218" t="s">
+        <v>418</v>
+      </c>
+      <c r="B9" s="218"/>
+      <c r="C9" s="218"/>
+      <c r="D9" s="218"/>
+      <c r="E9" s="218"/>
+      <c r="F9" s="218"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="7" t="s">
@@ -4389,22 +4398,22 @@
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>469</v>
-      </c>
       <c r="E11" s="15" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G11" t="s">
         <v>161</v>
@@ -4512,76 +4521,76 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A9" s="224" t="s">
+      <c r="A9" s="225" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="225"/>
-      <c r="C9" s="225"/>
-      <c r="D9" s="225"/>
-      <c r="E9" s="225"/>
-      <c r="F9" s="225"/>
-      <c r="G9" s="225"/>
-      <c r="H9" s="225"/>
-      <c r="I9" s="225"/>
-      <c r="J9" s="225"/>
-      <c r="K9" s="225"/>
-      <c r="L9" s="225"/>
-      <c r="M9" s="225"/>
-      <c r="N9" s="225"/>
-      <c r="O9" s="225"/>
-      <c r="P9" s="225"/>
-      <c r="Q9" s="225"/>
-      <c r="R9" s="226"/>
+      <c r="B9" s="226"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="226"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="226"/>
+      <c r="G9" s="226"/>
+      <c r="H9" s="226"/>
+      <c r="I9" s="226"/>
+      <c r="J9" s="226"/>
+      <c r="K9" s="226"/>
+      <c r="L9" s="226"/>
+      <c r="M9" s="226"/>
+      <c r="N9" s="226"/>
+      <c r="O9" s="226"/>
+      <c r="P9" s="226"/>
+      <c r="Q9" s="226"/>
+      <c r="R9" s="227"/>
     </row>
     <row r="10" spans="1:18" ht="33" customHeight="1">
-      <c r="A10" s="218" t="s">
+      <c r="A10" s="223" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="218" t="s">
+      <c r="B10" s="223" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="218" t="s">
+      <c r="C10" s="223" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="218" t="s">
+      <c r="D10" s="223" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="222" t="s">
+      <c r="E10" s="220" t="s">
         <v>194</v>
       </c>
-      <c r="F10" s="227"/>
-      <c r="G10" s="223"/>
-      <c r="H10" s="218" t="s">
+      <c r="F10" s="221"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="223" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="220" t="s">
+      <c r="I10" s="229" t="s">
         <v>197</v>
       </c>
-      <c r="J10" s="221"/>
-      <c r="K10" s="222" t="s">
+      <c r="J10" s="230"/>
+      <c r="K10" s="220" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="223"/>
-      <c r="M10" s="222" t="s">
+      <c r="L10" s="222"/>
+      <c r="M10" s="220" t="s">
         <v>199</v>
       </c>
-      <c r="N10" s="223"/>
+      <c r="N10" s="222"/>
       <c r="O10" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="P10" s="217" t="s">
+      <c r="P10" s="219" t="s">
         <v>200</v>
       </c>
-      <c r="Q10" s="217"/>
-      <c r="R10" s="216" t="s">
+      <c r="Q10" s="219"/>
+      <c r="R10" s="228" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="33" customHeight="1">
-      <c r="A11" s="219"/>
-      <c r="B11" s="219"/>
-      <c r="C11" s="219"/>
-      <c r="D11" s="219"/>
+      <c r="A11" s="224"/>
+      <c r="B11" s="224"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="224"/>
       <c r="E11" s="93" t="s">
         <v>191</v>
       </c>
@@ -4591,7 +4600,7 @@
       <c r="G11" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="H11" s="219"/>
+      <c r="H11" s="224"/>
       <c r="I11" s="91" t="s">
         <v>128</v>
       </c>
@@ -4617,7 +4626,7 @@
       <c r="Q11" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="R11" s="216"/>
+      <c r="R11" s="228"/>
     </row>
     <row r="12" spans="1:18" ht="107.25" customHeight="1">
       <c r="A12" s="57" t="s">
@@ -4726,76 +4735,76 @@
       <c r="R14" s="73"/>
     </row>
     <row r="15" spans="1:18" ht="18" customHeight="1">
-      <c r="A15" s="224" t="s">
+      <c r="A15" s="225" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="225"/>
-      <c r="C15" s="225"/>
-      <c r="D15" s="225"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="225"/>
-      <c r="G15" s="225"/>
-      <c r="H15" s="225"/>
-      <c r="I15" s="225"/>
-      <c r="J15" s="225"/>
-      <c r="K15" s="225"/>
-      <c r="L15" s="225"/>
-      <c r="M15" s="225"/>
-      <c r="N15" s="225"/>
-      <c r="O15" s="225"/>
-      <c r="P15" s="225"/>
-      <c r="Q15" s="225"/>
-      <c r="R15" s="226"/>
+      <c r="B15" s="226"/>
+      <c r="C15" s="226"/>
+      <c r="D15" s="226"/>
+      <c r="E15" s="226"/>
+      <c r="F15" s="226"/>
+      <c r="G15" s="226"/>
+      <c r="H15" s="226"/>
+      <c r="I15" s="226"/>
+      <c r="J15" s="226"/>
+      <c r="K15" s="226"/>
+      <c r="L15" s="226"/>
+      <c r="M15" s="226"/>
+      <c r="N15" s="226"/>
+      <c r="O15" s="226"/>
+      <c r="P15" s="226"/>
+      <c r="Q15" s="226"/>
+      <c r="R15" s="227"/>
     </row>
     <row r="16" spans="1:18" ht="33" customHeight="1">
-      <c r="A16" s="218" t="s">
+      <c r="A16" s="223" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="218" t="s">
+      <c r="B16" s="223" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="218" t="s">
+      <c r="C16" s="223" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="218" t="s">
+      <c r="D16" s="223" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="222" t="s">
+      <c r="E16" s="220" t="s">
         <v>194</v>
       </c>
-      <c r="F16" s="227"/>
-      <c r="G16" s="223"/>
-      <c r="H16" s="218" t="s">
+      <c r="F16" s="221"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="223" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="220" t="s">
+      <c r="I16" s="229" t="s">
         <v>197</v>
       </c>
-      <c r="J16" s="221"/>
-      <c r="K16" s="222" t="s">
+      <c r="J16" s="230"/>
+      <c r="K16" s="220" t="s">
         <v>71</v>
       </c>
-      <c r="L16" s="223"/>
-      <c r="M16" s="222" t="s">
+      <c r="L16" s="222"/>
+      <c r="M16" s="220" t="s">
         <v>199</v>
       </c>
-      <c r="N16" s="223"/>
+      <c r="N16" s="222"/>
       <c r="O16" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="P16" s="217" t="s">
+      <c r="P16" s="219" t="s">
         <v>200</v>
       </c>
-      <c r="Q16" s="217"/>
-      <c r="R16" s="216" t="s">
+      <c r="Q16" s="219"/>
+      <c r="R16" s="228" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="33" customHeight="1">
-      <c r="A17" s="219"/>
-      <c r="B17" s="219"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="219"/>
+      <c r="A17" s="224"/>
+      <c r="B17" s="224"/>
+      <c r="C17" s="224"/>
+      <c r="D17" s="224"/>
       <c r="E17" s="93" t="s">
         <v>191</v>
       </c>
@@ -4805,7 +4814,7 @@
       <c r="G17" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="H17" s="219"/>
+      <c r="H17" s="224"/>
       <c r="I17" s="91" t="s">
         <v>128</v>
       </c>
@@ -4831,7 +4840,7 @@
       <c r="Q17" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="R17" s="216"/>
+      <c r="R17" s="228"/>
     </row>
     <row r="18" spans="1:18" ht="21" customHeight="1">
       <c r="A18" s="57" t="s">
@@ -4923,16 +4932,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A4:Q4"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A9:R9"/>
-    <mergeCell ref="R10:R11"/>
     <mergeCell ref="R16:R17"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="C10:C11"/>
@@ -4948,6 +4947,16 @@
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A4:Q4"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A9:R9"/>
+    <mergeCell ref="R10:R11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12:L14 K18:L21">
@@ -5046,33 +5055,33 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="231" t="s">
+      <c r="A10" s="234" t="s">
         <v>270</v>
       </c>
-      <c r="B10" s="231"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="231"/>
-      <c r="E10" s="231"/>
-      <c r="F10" s="231"/>
-      <c r="G10" s="231"/>
-      <c r="H10" s="231"/>
-      <c r="I10" s="231"/>
+      <c r="B10" s="234"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
+      <c r="G10" s="234"/>
+      <c r="H10" s="234"/>
+      <c r="I10" s="234"/>
       <c r="J10" s="62"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A11" s="232" t="s">
+      <c r="A11" s="235" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="232"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="233" t="s">
+      <c r="B11" s="235"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="236" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="233"/>
-      <c r="F11" s="233"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="233"/>
-      <c r="I11" s="233"/>
+      <c r="E11" s="236"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="236"/>
+      <c r="H11" s="236"/>
+      <c r="I11" s="236"/>
       <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
@@ -5140,9 +5149,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A14" s="228"/>
-      <c r="B14" s="229"/>
-      <c r="C14" s="230"/>
+      <c r="A14" s="231"/>
+      <c r="B14" s="232"/>
+      <c r="C14" s="233"/>
       <c r="D14" s="13">
         <v>2</v>
       </c>
@@ -5220,9 +5229,9 @@
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A17" s="228"/>
-      <c r="B17" s="229"/>
-      <c r="C17" s="230"/>
+      <c r="A17" s="231"/>
+      <c r="B17" s="232"/>
+      <c r="C17" s="233"/>
       <c r="D17" s="13" t="s">
         <v>87</v>
       </c>
@@ -5338,33 +5347,33 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="231" t="s">
+      <c r="A10" s="234" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="231"/>
-      <c r="C10" s="231"/>
-      <c r="D10" s="231"/>
-      <c r="E10" s="231"/>
-      <c r="F10" s="231"/>
-      <c r="G10" s="231"/>
-      <c r="H10" s="231"/>
-      <c r="I10" s="231"/>
+      <c r="B10" s="234"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
+      <c r="G10" s="234"/>
+      <c r="H10" s="234"/>
+      <c r="I10" s="234"/>
       <c r="J10" s="62"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A11" s="232" t="s">
+      <c r="A11" s="235" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="232"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="233" t="s">
+      <c r="B11" s="235"/>
+      <c r="C11" s="235"/>
+      <c r="D11" s="236" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="233"/>
-      <c r="F11" s="233"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="233"/>
-      <c r="I11" s="233"/>
+      <c r="E11" s="236"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="236"/>
+      <c r="H11" s="236"/>
+      <c r="I11" s="236"/>
       <c r="J11" s="63"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
@@ -5432,9 +5441,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A14" s="228"/>
-      <c r="B14" s="229"/>
-      <c r="C14" s="230"/>
+      <c r="A14" s="231"/>
+      <c r="B14" s="232"/>
+      <c r="C14" s="233"/>
       <c r="D14" s="13">
         <v>2</v>
       </c>
@@ -5512,9 +5521,9 @@
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A17" s="228"/>
-      <c r="B17" s="229"/>
-      <c r="C17" s="230"/>
+      <c r="A17" s="231"/>
+      <c r="B17" s="232"/>
+      <c r="C17" s="233"/>
       <c r="D17" s="13" t="s">
         <v>87</v>
       </c>
@@ -6992,7 +7001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -7200,8 +7209,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7295,28 +7304,28 @@
     </row>
     <row r="7" spans="1:8" ht="86.25" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>404</v>
+        <v>466</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>406</v>
+        <v>469</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>407</v>
+        <v>470</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>408</v>
+        <v>471</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>409</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -7433,25 +7442,25 @@
     </row>
     <row r="8" spans="1:7" ht="30.75" customHeight="1">
       <c r="A8" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="G8" s="15" t="s">
         <v>412</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -7526,34 +7535,34 @@
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1"/>
     <row r="6" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A6" s="170" t="s">
+      <c r="A6" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="171"/>
+      <c r="B6" s="174"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="176" t="s">
+      <c r="A7" s="171" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="176"/>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
       <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A8" s="177" t="s">
+      <c r="A8" s="172" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="177"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
       <c r="E8" s="72"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A9" s="172" t="s">
+      <c r="A9" s="175" t="s">
         <v>277</v>
       </c>
-      <c r="B9" s="172"/>
+      <c r="B9" s="175"/>
       <c r="C9" s="101"/>
       <c r="D9" s="101"/>
       <c r="E9" s="101"/>
@@ -7562,10 +7571,10 @@
       <c r="I10" s="64"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A11" s="234" t="s">
-        <v>423</v>
-      </c>
-      <c r="B11" s="171"/>
+      <c r="A11" s="176" t="s">
+        <v>418</v>
+      </c>
+      <c r="B11" s="174"/>
     </row>
     <row r="12" spans="1:14" ht="33.75" customHeight="1">
       <c r="A12" s="75" t="s">
@@ -7594,16 +7603,16 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A13" s="173" t="s">
-        <v>424</v>
-      </c>
-      <c r="B13" s="173"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="174"/>
+      <c r="A13" s="177" t="s">
+        <v>419</v>
+      </c>
+      <c r="B13" s="177"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="178"/>
     </row>
     <row r="14" spans="1:14" ht="44.25" customHeight="1">
       <c r="A14" s="120" t="s">
@@ -7613,22 +7622,22 @@
         <v>404</v>
       </c>
       <c r="C14" s="120" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D14" s="120" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E14" s="120" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
@@ -7639,15 +7648,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:H13"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:H13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Index" display="Back to Index"/>
@@ -7711,30 +7720,30 @@
       <c r="B5" s="39"/>
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="183" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="183"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="178" t="s">
+      <c r="B6" s="184"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="179" t="s">
         <v>278</v>
       </c>
-      <c r="F6" s="178" t="s">
+      <c r="F6" s="179" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="181" t="s">
+      <c r="A7" s="182" t="s">
         <v>223</v>
       </c>
-      <c r="B7" s="181"/>
-      <c r="C7" s="181" t="s">
+      <c r="B7" s="182"/>
+      <c r="C7" s="182" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="181"/>
-      <c r="E7" s="179"/>
-      <c r="F7" s="179"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
     </row>
     <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="75" t="s">
@@ -7749,27 +7758,27 @@
       <c r="D8" s="121" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="180"/>
-      <c r="F8" s="180"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
     </row>
     <row r="9" spans="1:6" s="46" customFormat="1" ht="38.25" customHeight="1">
       <c r="A9" s="106" t="s">
+        <v>420</v>
+      </c>
+      <c r="B9" s="106" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" s="106" t="s">
+        <v>422</v>
+      </c>
+      <c r="D9" s="106" t="s">
+        <v>423</v>
+      </c>
+      <c r="E9" s="106" t="s">
         <v>425</v>
       </c>
-      <c r="B9" s="106" t="s">
-        <v>426</v>
-      </c>
-      <c r="C9" s="106" t="s">
-        <v>427</v>
-      </c>
-      <c r="D9" s="106" t="s">
-        <v>428</v>
-      </c>
-      <c r="E9" s="106" t="s">
-        <v>430</v>
-      </c>
       <c r="F9" s="106" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/Templates/RSL-IL-ExcelTemplate.xlsx
+++ b/Templates/RSL-IL-ExcelTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -2512,6 +2512,24 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2519,24 +2537,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3819,18 +3819,18 @@
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="170" t="s">
         <v>267</v>
       </c>
-      <c r="B6" s="174"/>
+      <c r="B6" s="171"/>
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1">
       <c r="A7" s="205" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="206"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
       <c r="E7" s="61"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
@@ -3838,8 +3838,8 @@
         <v>184</v>
       </c>
       <c r="B8" s="208"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
       <c r="E8" s="61"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1">
@@ -6749,8 +6749,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7209,7 +7209,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -7535,34 +7535,34 @@
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1"/>
     <row r="6" spans="1:14" ht="13.5" customHeight="1">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="170" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="174"/>
+      <c r="B6" s="171"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="171" t="s">
+      <c r="A7" s="177" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="171"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
       <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A8" s="172" t="s">
+      <c r="A8" s="178" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="172"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
       <c r="E8" s="72"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="172" t="s">
         <v>277</v>
       </c>
-      <c r="B9" s="175"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="101"/>
       <c r="D9" s="101"/>
       <c r="E9" s="101"/>
@@ -7571,10 +7571,10 @@
       <c r="I10" s="64"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A11" s="176" t="s">
+      <c r="A11" s="173" t="s">
         <v>418</v>
       </c>
-      <c r="B11" s="174"/>
+      <c r="B11" s="171"/>
     </row>
     <row r="12" spans="1:14" ht="33.75" customHeight="1">
       <c r="A12" s="75" t="s">
@@ -7603,16 +7603,16 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A13" s="177" t="s">
+      <c r="A13" s="174" t="s">
         <v>419</v>
       </c>
-      <c r="B13" s="177"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="178"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="175"/>
     </row>
     <row r="14" spans="1:14" ht="44.25" customHeight="1">
       <c r="A14" s="120" t="s">
@@ -7648,8 +7648,6 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="A7:B7"/>
@@ -7657,6 +7655,8 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Index" display="Back to Index"/>
